--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fhstp-my.sharepoint.com/personal/cc231056_fhstp_ac_at/Documents/__BachelorThesis/blast_othering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{C97D02D2-EB83-470F-A25F-DC8D772D80A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2736D74A-3C47-47E3-BD49-B9D36BD64C5C}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{C97D02D2-EB83-470F-A25F-DC8D772D80A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F777605-BB80-4125-BDD0-E893B5F58C9F}"/>
   <bookViews>
     <workbookView xWindow="46080" yWindow="2655" windowWidth="15690" windowHeight="11235" activeTab="1" xr2:uid="{89836E28-A58B-4A46-9E2E-BBA76872F93C}"/>
   </bookViews>
@@ -1583,6 +1583,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="" refreshedDate="0" createdVersion="8" refreshedVersion="8" recordCount="0" xr:uid="{0E67942E-DCCE-461F-8D2C-B9A53700F71F}">
   <cacheSource type="worksheet">
@@ -2231,8 +2235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B25ADD2-D2C7-4963-BAEA-EAA045C1F0D4}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3023,12 +3027,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
         <v>58</v>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fhstp-my.sharepoint.com/personal/cc231056_fhstp_ac_at/Documents/__BachelorThesis/blast_othering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{C97D02D2-EB83-470F-A25F-DC8D772D80A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F777605-BB80-4125-BDD0-E893B5F58C9F}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{C97D02D2-EB83-470F-A25F-DC8D772D80A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{322B1410-12A1-42AB-AD0D-1C4047E38EA6}"/>
   <bookViews>
-    <workbookView xWindow="46080" yWindow="2655" windowWidth="15690" windowHeight="11235" activeTab="1" xr2:uid="{89836E28-A58B-4A46-9E2E-BBA76872F93C}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{89836E28-A58B-4A46-9E2E-BBA76872F93C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1949,8 +1949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95423600-7CD2-49E6-8D23-DE06EFED441E}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2235,8 +2235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B25ADD2-D2C7-4963-BAEA-EAA045C1F0D4}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2327,7 +2327,7 @@
       <c r="E4" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="12"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
@@ -4092,7 +4092,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="I1:I4"/>
   </mergeCells>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.78740157500000008" bottom="0.78740157500000008" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -2235,8 +2235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B25ADD2-D2C7-4963-BAEA-EAA045C1F0D4}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="26" documentId="8_{C97D02D2-EB83-470F-A25F-DC8D772D80A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{322B1410-12A1-42AB-AD0D-1C4047E38EA6}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{89836E28-A58B-4A46-9E2E-BBA76872F93C}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{89836E28-A58B-4A46-9E2E-BBA76872F93C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1949,8 +1949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95423600-7CD2-49E6-8D23-DE06EFED441E}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2235,7 +2235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B25ADD2-D2C7-4963-BAEA-EAA045C1F0D4}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fhstp-my.sharepoint.com/personal/cc231056_fhstp_ac_at/Documents/__BachelorThesis/blast_othering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{C97D02D2-EB83-470F-A25F-DC8D772D80A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{322B1410-12A1-42AB-AD0D-1C4047E38EA6}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{C97D02D2-EB83-470F-A25F-DC8D772D80A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C9257FA-6CE3-4FAC-B74A-DAEA26649AE7}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{89836E28-A58B-4A46-9E2E-BBA76872F93C}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{89836E28-A58B-4A46-9E2E-BBA76872F93C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1949,7 +1949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95423600-7CD2-49E6-8D23-DE06EFED441E}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
@@ -2235,8 +2235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B25ADD2-D2C7-4963-BAEA-EAA045C1F0D4}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3453,7 +3453,7 @@
         <v>159</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C66" t="s">
         <v>202</v>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -2235,8 +2235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B25ADD2-D2C7-4963-BAEA-EAA045C1F0D4}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fhstp-my.sharepoint.com/personal/cc231056_fhstp_ac_at/Documents/__BachelorThesis/blast_othering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{C97D02D2-EB83-470F-A25F-DC8D772D80A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C9257FA-6CE3-4FAC-B74A-DAEA26649AE7}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{C97D02D2-EB83-470F-A25F-DC8D772D80A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96C0674F-B84E-42A6-933F-CC1EF7D4A4FE}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{89836E28-A58B-4A46-9E2E-BBA76872F93C}"/>
   </bookViews>
@@ -2235,8 +2235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B25ADD2-D2C7-4963-BAEA-EAA045C1F0D4}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2275,7 +2275,7 @@
         <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
         <v>58</v>
@@ -2822,7 +2822,7 @@
         <v>117</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
         <v>58</v>
@@ -2981,7 +2981,7 @@
         <v>128</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="C40" t="s">
         <v>202</v>
@@ -3109,7 +3109,7 @@
         <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C47" t="s">
         <v>58</v>
@@ -3220,7 +3220,7 @@
         <v>144</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="C53" t="s">
         <v>58</v>
@@ -3257,7 +3257,7 @@
         <v>146</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C55" t="s">
         <v>58</v>
@@ -3277,7 +3277,7 @@
         <v>147</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C56" t="s">
         <v>58</v>
@@ -3414,12 +3414,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="C64" t="s">
         <v>202</v>
@@ -3771,7 +3771,7 @@
         <v>180</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C84" t="s">
         <v>202</v>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fhstp-my.sharepoint.com/personal/cc231056_fhstp_ac_at/Documents/__BachelorThesis/blast_othering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{C97D02D2-EB83-470F-A25F-DC8D772D80A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96C0674F-B84E-42A6-933F-CC1EF7D4A4FE}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{C97D02D2-EB83-470F-A25F-DC8D772D80A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A93B7B62-4286-4222-80F4-5401F790D20B}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{89836E28-A58B-4A46-9E2E-BBA76872F93C}"/>
   </bookViews>
@@ -2235,8 +2235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B25ADD2-D2C7-4963-BAEA-EAA045C1F0D4}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2275,7 +2275,7 @@
         <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
         <v>58</v>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,24 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fhstp-my.sharepoint.com/personal/cc231056_fhstp_ac_at/Documents/__BachelorThesis/blast_othering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{C97D02D2-EB83-470F-A25F-DC8D772D80A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A93B7B62-4286-4222-80F4-5401F790D20B}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{C97D02D2-EB83-470F-A25F-DC8D772D80A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AF9835A-C228-4B47-BDB0-EEC540B81A15}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{89836E28-A58B-4A46-9E2E-BBA76872F93C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle6" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabelle3" sheetId="4" r:id="rId2"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId3"/>
+    <sheet name="Tabelle6" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="14" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="208">
   <si>
     <t>Please classify the following statements in one of the categories in the table below. The structure is: Illocutionary act type, Illocutionary act pattern, Example, Shared illocutionary effect.
 Stereotyping, Describes stereotypically, “All [social group] are [characteristic]”, Group/individual is stereotyped Stereotyping, Caricatures individual as a member of a social group, “Those Russian trolls are always at it”, Group/individual is stereotyped Stereotyping, Prescribes stereotypically, “[Social group] should be [characteristic]”, Group/individual is stereotyped Stereotyping, Proscribes stereotypically, “[Social group] shouldn’t be [characteristic]”, Group/individual is stereotyped Demeaning, Stigmatizes using slurs “R*tard!”, Group/individual is stigmatized Demeaning, Stigmatizes using general insult “Those [social group] are such jerks”, Group/individual is stigmatized Demeaning, Stigmatizes on basis of disorder, disease, uncleanliness, or untidiness, “[Social group] are riddled with disease”, Group/individual is stigmatized Demeaning, Stigmatizes on basis of immorality, danger, or deviance, “Being [social group] is a sin”, Group/individual is stigmatized Demeaning, Stigmatizes on basis of lack of social capital (popularity, likability, interest, success, or other positive quality), “[Social group] are not that successful, are they?”, Group/individual is stigmatized Demeaning, Advocates for stigmatizing treatment/avoidance, “Avoid [social group] at all costs!”, Group/individual is stigmatized Demeaning, Threatens or promises stigmatizing treatment/avoidance, “Better keep some distance from [social group] or you’ll end up like them”, Group/individual is stigmatized Demeaning, Others individuals from group as poor exemplar, “They’re not a real [social group member]”, Group/individual is othered Demeaning, Others group from (dominant) group, “[Social group] are just really different from the rest of us”, Group/individual is othered Demeaning, Others subgroup from superset group, “[Social subgroup] aren’t really even [social superset group]”, Group/individual is othered Demeaning, Advocates for treatment as other, “Let’s make sure [social group] can’t get too comfortable here”, Group/individual is othered Demeaning, Threatens or promises othering treatment, “If they’re not careful, [social group] will end up being treated differently from everyone else”, Group/individual is othered Demeaning, Objectifies (reduces to physical attribute or behavior), “[Social group] are all legs!”, Group/individual is simplified Demeaning, Glorifies (reduces to prominent and often flattering character or personality traits), “[Social group] are so brave in the face of so much adversity”, Group/individual is simplified Demeaning, Advocates for treatment along the lines of simplified (objectifying or glorifying) features “Let’s go get us some [social group] ass”, Group/individual is simplified Demeaning, Threatens or promises treatment along the lines of simplified (objectifying or glorifying) features “We’re going to treat you [social group] like your [objectified body parts] deserve”, Group/individual is simplified Demeaning, Equates to baby/child, animal, disease or inanimate object, “[Social group] are such babies”, Group/individual is dehumanized Demeaning, Notes characteristics that match baby/child, animal, disease or inanimate object, “Why are [social group] always whining?”, Group/individual is dehumanized Demeaning, Advocates for treatment like baby/child, animal, disease or inanimate object, “[Social group] need to be disciplined”, Group/individual is dehumanized Demeaning, Threatens or promises treatment like baby/child, animal, disease or inanimate object, “If those [social group] aren’t careful, I’m going to skewer them”, Group/individual is dehumanized
@@ -868,6 +870,9 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Anzahl von Category</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1014,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1062,6 +1067,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -1080,6 +1087,389 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[examples.xlsx]Tabelle3!PivotTable7</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Anzahl von Category</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle3!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ergebnis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle3!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Dehumanizing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>None</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Simplifying</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Stereotyping</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Stigmatizing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle3!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DCBB-4AC8-B1C0-DD70722A39EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -1547,7 +1937,607 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DFB4CBB-A52B-952B-721C-3298EA8FA0F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1605,7 +2595,734 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Niklas Hofstetter" refreshedDate="45917.032925115738" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="100" xr:uid="{837856FC-6C33-4425-AC06-0D3C7019ED8A}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D101" sheet="Tabelle2"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Text" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Category" numFmtId="0">
+      <sharedItems count="5">
+        <s v="None"/>
+        <s v="Stigmatizing"/>
+        <s v="Dehumanizing"/>
+        <s v="Stereotyping"/>
+        <s v="Simplifying"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="isOthering" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Notes" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="100">
+  <r>
+    <s v="Gotta look out for those foreign immigrants."/>
+    <x v="0"/>
+    <s v="Othering"/>
+    <s v="Context important"/>
+  </r>
+  <r>
+    <s v="christ, women are fucking stupid"/>
+    <x v="1"/>
+    <s v="Othering"/>
+    <s v="Stereotype"/>
+  </r>
+  <r>
+    <s v="yet another example of aggressive militant feminism hurting women more than it helps them."/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="Stereotype"/>
+  </r>
+  <r>
+    <s v="Instead they get ass raped by somalian and other mudslime immigrants."/>
+    <x v="2"/>
+    <s v="Othering"/>
+    <s v="Stigmatizing"/>
+  </r>
+  <r>
+    <s v="Why are women so lazy?"/>
+    <x v="3"/>
+    <s v="Othering"/>
+    <s v="Simplifying, Stereotyping"/>
+  </r>
+  <r>
+    <s v="It is still OK to make fun of other species tho, like Jews"/>
+    <x v="2"/>
+    <s v="Othering"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="you mean, no reason to hate jews more than any other religion."/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="sandniggers are just as beautiful as any other women"/>
+    <x v="2"/>
+    <s v="Othering"/>
+    <s v="Stigmatizing"/>
+  </r>
+  <r>
+    <s v="Fuck women and their socialistic scumshitlord ways of objectifying men. "/>
+    <x v="1"/>
+    <s v="Othering"/>
+    <s v="Simplifying, Stereotyping"/>
+  </r>
+  <r>
+    <s v="degenerate atheists"/>
+    <x v="1"/>
+    <s v="Othering"/>
+    <s v="Simplifying"/>
+  </r>
+  <r>
+    <s v="Most of our immigrants are other Europeans."/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="It applies to both women and girls, and they're both astoundingly weak"/>
+    <x v="3"/>
+    <s v="Othering"/>
+    <s v="Simplifying"/>
+  </r>
+  <r>
+    <s v="What the fuck is wrong with people?"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="Anyway tatar are non-white scum like niggers, jews and Turks."/>
+    <x v="2"/>
+    <s v="Othering"/>
+    <s v="Stigmatizing"/>
+  </r>
+  <r>
+    <s v="That guy's just retarded."/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="And feeling like some behind-enemy-lines spy going into the lesbian chat room!"/>
+    <x v="0"/>
+    <s v="Othering"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="You do know that 4chan was supporting female game developers with this right?"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="You are a really retarded piece of shit."/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="It's stupid, but it works with some women."/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="I mean what other #!%@ing reason do you ask a girl to a dinner?"/>
+    <x v="4"/>
+    <s v="No"/>
+    <s v="Stereotyping"/>
+  </r>
+  <r>
+    <s v="It's ignorant as fuck to believe that white people can't be poor."/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="Stupid and gay, not a lot going for you in this life."/>
+    <x v="1"/>
+    <s v="Othering"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="I mean, all women are stupid, so that shouldn't surprise you"/>
+    <x v="3"/>
+    <s v="No"/>
+    <s v="Stigmatizing"/>
+  </r>
+  <r>
+    <s v="Women don't like to work."/>
+    <x v="3"/>
+    <s v="No"/>
+    <s v="Stigmatizing"/>
+  </r>
+  <r>
+    <s v="make it illegal for Jews to hold jobs/own land."/>
+    <x v="2"/>
+    <s v="Othering"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="Fuck. You are so fucking stupid."/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="If their entire religious following was removed from this planet, we wouldnt lose a single thing except a threat to civilized culture."/>
+    <x v="2"/>
+    <s v="Othering"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="Blacks are more likely to commit violent crime over East Asians, mostly due to biological differences"/>
+    <x v="3"/>
+    <s v="Othering"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="Men are more likely to commit violent crime over women, mostly due to biological differences"/>
+    <x v="3"/>
+    <s v="Othering"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="Cracks me up that women think they're as degenerate as men"/>
+    <x v="3"/>
+    <s v="Othering"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="Women. Are. Shit. At. Driving."/>
+    <x v="3"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="But on the other hand his girls a stupid slut and needs to be set on fire and drowned in sewage."/>
+    <x v="2"/>
+    <s v="Othering"/>
+    <s v="Stigmatizing"/>
+  </r>
+  <r>
+    <s v="Cuz Jews print the news, fuck the other 6 million that died who were not Jews. "/>
+    <x v="3"/>
+    <s v="Othering"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="I think the effects of this are increased through gender discrimination however, and men favoring other men would happen less often than men favoring women."/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="If women want equality, they should give men an equal opt-out and an equal say in parenthood."/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="Men masturbate more, watch more porn, pay for sex, etc."/>
+    <x v="3"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="Americans have been far too lenient with the protestants and their backward ways."/>
+    <x v="1"/>
+    <s v="Othering"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="Society places a far higher value on the life of a woman than that of a man."/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="atheists spend more time antagonizing Christians than any other religious groups"/>
+    <x v="3"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="Men harm society more than women."/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="Stereotyping"/>
+  </r>
+  <r>
+    <s v="In today’s world, the overall net effect would be positive if Islamic doctrine disappeared."/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="The Middle East would be more stable if it underwent de-Arabization and border changes"/>
+    <x v="4"/>
+    <s v="Othering"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="Wait, Muslims actually fucking accomplished something other than violence?"/>
+    <x v="1"/>
+    <s v="Othering"/>
+    <s v="Stereotyping"/>
+  </r>
+  <r>
+    <s v="I hope you get axe murdered for Christmas you wothless fucking cocksucker."/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="Poor, dirty foreigner..."/>
+    <x v="1"/>
+    <s v="Othering"/>
+    <s v="Stereotyping"/>
+  </r>
+  <r>
+    <s v="You sound like those Middle East apologists who think treating women as property is a valid cultural difference."/>
+    <x v="1"/>
+    <s v="Othering"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="Fuck youre so stupid, I thought you jews had high verbal iq"/>
+    <x v="1"/>
+    <s v="Othering"/>
+    <s v="Stereotyping, Simplifying"/>
+  </r>
+  <r>
+    <s v="Democrats speak about white people the way Hitler spoke of the jews."/>
+    <x v="1"/>
+    <s v="Othering"/>
+    <s v="Stereotyping, Simplifying"/>
+  </r>
+  <r>
+    <s v="Having breasts and a vagina doesn't make a woman alien"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="Women were as radical for early 20th standars as they are for today's."/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="She sounds like inconsiderate trash"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="Stigmatizing"/>
+  </r>
+  <r>
+    <s v=" It is the media and other women are dictating what men should want."/>
+    <x v="3"/>
+    <s v="Othering"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="Women who don't know their way around a kitchen isn't &quot;breaking gender stereotypes&quot;"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="It should be illegal *nationwide* to pay housing rent to foreigners."/>
+    <x v="1"/>
+    <s v="Othering"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="I will never support illegal immigrants holding public office."/>
+    <x v="1"/>
+    <s v="Othering"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="And that, boys and girls, is called a false equivalency."/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="Gotta make someone the evil bad guy cause people just can't be fucking nice to each other."/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="that is a disgusting piece of slime that should never have been allowed to become POTUS"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="Stigmatizing, Simplifying"/>
+  </r>
+  <r>
+    <s v="At the very least the guy is a loser, criminal and idiot."/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="And what about the stories of those women?"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="You'll suspect someone from Bangladesh of terrorism before someone from Turkey."/>
+    <x v="3"/>
+    <s v="Othering"/>
+    <s v="Stigmatizing"/>
+  </r>
+  <r>
+    <s v="Most men are pigs and rapists"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="Stereotyping, Stigmatizing, Simplifying"/>
+  </r>
+  <r>
+    <s v="If women's tennis is known as the &quot;sport where chicks freak out at the refs&quot; then it's her fault."/>
+    <x v="3"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="Women are not minors. "/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="Fuck you and your normalization of hating Jews"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="Turns out women are weak huh."/>
+    <x v="3"/>
+    <s v="No"/>
+    <s v="Simplifying, Stigmatizing"/>
+  </r>
+  <r>
+    <s v="most women aren't that stupid "/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="This sub is just becoming a place for people to openly hate on women."/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="Those people are stupid"/>
+    <x v="1"/>
+    <s v="Othering"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="They have chosen one side as &quot;the good guys&quot;, the oppressed victims who need protection from the enemy (White Man)."/>
+    <x v="0"/>
+    <s v="Othering"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="Ofc she has advantage, she still has higher testosterone levels, making her stronger and faster than other women."/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="None "/>
+  </r>
+  <r>
+    <s v="Sexism is everywhere, it’s baked into our society."/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="Women get jealous over dumb stuff like this when there's other things to be concerned about like what you've said."/>
+    <x v="3"/>
+    <s v="No"/>
+    <s v="Simplifying"/>
+  </r>
+  <r>
+    <s v="Nobody is dragged through the mud for being raped."/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="lol you have been nothing but absolutely shitty about trans people and are somehow still stupid enough to say things like that "/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="just like I thought ~~gay~~trash"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="Stigmatizing"/>
+  </r>
+  <r>
+    <s v="People really have to stop treating women like they have to be the same as men."/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="I'm beyond sick of Christians shoving their shit down other Americans' throats."/>
+    <x v="1"/>
+    <s v="Othering"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="A worthless whore like that one is not worth it"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="Stigmatizing, Simplifying"/>
+  </r>
+  <r>
+    <s v="Maybe I’m crazy but I think women aren’t helpless babies that need to be coddled. "/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="You'd think we're all gay with the amount of hugging and kissing on the cheek we do lol. "/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="I was trying to be politically correct, but what I was really referring to are immigrants from the Middle East and North Africa who generally practice radical islam."/>
+    <x v="3"/>
+    <s v="Othering"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="a bunch of other stupid bullshit christian laws "/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="Most of them are fucking crazy."/>
+    <x v="1"/>
+    <s v="Othering"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="Just because other people think women have no worth, doesn't mean it is true."/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="I agree that atheists can build morals off of other things that aren't God."/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="Black women have the lowest value in the eyes of men of pretty much any race."/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="Would it not then be ridiculous for men to not be allowed call each other cunt? "/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="Nobody could legitimately look at human history and conclude that women are just inherently worthless."/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="When you call someone a faggot, you're not just using a dirty word, you're saying what being gay makes you a lesser person."/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="American women are the only stupid bitches getting pregnant at 40"/>
+    <x v="1"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="The cancer of feminism won't be stopped until it's universally condemned."/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="Stigmatizing"/>
+  </r>
+  <r>
+    <s v="~~Radical~~ muslims are the ebola of Europe."/>
+    <x v="2"/>
+    <s v="Othering"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="Meanwhile fat white girls are the ones thinking obesity is &quot;curvy&quot;."/>
+    <x v="4"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="LGBTQ are scum, worse than liberals."/>
+    <x v="2"/>
+    <s v="Othering"/>
+    <s v="Stigmatizing"/>
+  </r>
+  <r>
+    <s v="All trannies are part of LGBTQ, being the T in that coagulation of filth."/>
+    <x v="2"/>
+    <s v="Othering"/>
+    <s v="Stigmatizing"/>
+  </r>
+  <r>
+    <s v="Calling Muslims 'subhuman' is an insult to subhumans"/>
+    <x v="2"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="blacks in America came here voluntarily as immigrants"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+  <r>
+    <s v="Why are women so whiny?"/>
+    <x v="3"/>
+    <s v="Othering"/>
+    <s v="Dehumanizing"/>
+  </r>
+  <r>
+    <s v="Women don't have it any better or worse than guys in the West"/>
+    <x v="0"/>
+    <s v="No"/>
+    <s v="None"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5C892157-91F8-4545-9835-061C70668129}" name="PivotTable7" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Anzahl von Category" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E0C6DA46-ACB8-4BE2-9228-61FCB33D4A09}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0">
   <location ref="A3:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
@@ -2232,11 +3949,79 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3ABC66F-6C65-42D2-A999-AD7FD494124D}">
+  <dimension ref="A3:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.9296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="23">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="23">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B25ADD2-D2C7-4963-BAEA-EAA045C1F0D4}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4099,7 +5884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CE0172-35A8-41CD-B652-AC039F66C776}">
   <dimension ref="A3:B15"/>
   <sheetViews>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fhstp-my.sharepoint.com/personal/cc231056_fhstp_ac_at/Documents/__BachelorThesis/blast_othering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{C97D02D2-EB83-470F-A25F-DC8D772D80A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AF9835A-C228-4B47-BDB0-EEC540B81A15}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{C97D02D2-EB83-470F-A25F-DC8D772D80A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E288AB50-A536-4672-9D6F-8D3CDF18963C}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{89836E28-A58B-4A46-9E2E-BBA76872F93C}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{89836E28-A58B-4A46-9E2E-BBA76872F93C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <calcPr calcId="0"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="14" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1014,7 +1014,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1061,14 +1061,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -1219,6 +1218,76 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1252,6 +1321,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5B60-4C81-B6DA-0DE8E1688754}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1267,6 +1341,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5B60-4C81-B6DA-0DE8E1688754}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1282,6 +1361,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5B60-4C81-B6DA-0DE8E1688754}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1297,6 +1381,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-5B60-4C81-B6DA-0DE8E1688754}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1312,6 +1401,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-5B60-4C81-B6DA-0DE8E1688754}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -3234,7 +3328,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5C892157-91F8-4545-9835-061C70668129}" name="PivotTable7" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5C892157-91F8-4545-9835-061C70668129}" name="PivotTable7" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -3299,12 +3393,72 @@
   <dataFields count="1">
     <dataField name="Anzahl von Category" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="6">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -3680,11 +3834,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="296.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -3952,7 +4106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3ABC66F-6C65-42D2-A999-AD7FD494124D}">
   <dimension ref="A3:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -3963,7 +4117,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>204</v>
       </c>
       <c r="B3" t="s">
@@ -3974,7 +4128,7 @@
       <c r="A4" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4">
         <v>17</v>
       </c>
     </row>
@@ -3982,7 +4136,7 @@
       <c r="A5" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5">
         <v>35</v>
       </c>
     </row>
@@ -3990,7 +4144,7 @@
       <c r="A6" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6">
         <v>3</v>
       </c>
     </row>
@@ -3998,7 +4152,7 @@
       <c r="A7" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7">
         <v>18</v>
       </c>
     </row>
@@ -4006,7 +4160,7 @@
       <c r="A8" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8">
         <v>27</v>
       </c>
     </row>
@@ -4020,8 +4174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B25ADD2-D2C7-4963-BAEA-EAA045C1F0D4}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4050,7 +4204,7 @@
       <c r="D1" t="s">
         <v>206</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="22" t="s">
         <v>62</v>
       </c>
       <c r="J1" s="12"/>
@@ -4074,7 +4228,7 @@
       <c r="F2" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="21"/>
+      <c r="I2" s="22"/>
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
@@ -4093,7 +4247,7 @@
       <c r="E3" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="21"/>
+      <c r="I3" s="22"/>
       <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
@@ -4101,18 +4255,18 @@
         <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
         <v>202</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="21"/>
+      <c r="I4" s="22"/>
       <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
@@ -4587,7 +4741,7 @@
         <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
         <v>58</v>
@@ -4607,7 +4761,7 @@
         <v>117</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
         <v>58</v>
@@ -4766,7 +4920,7 @@
         <v>128</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
         <v>202</v>
@@ -4817,7 +4971,7 @@
         <v>131</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
         <v>58</v>
@@ -5005,7 +5159,7 @@
         <v>144</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C53" t="s">
         <v>58</v>
@@ -5062,7 +5216,7 @@
         <v>147</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C56" t="s">
         <v>58</v>
@@ -5414,7 +5568,7 @@
         <v>171</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C76" t="s">
         <v>202</v>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fhstp-my.sharepoint.com/personal/cc231056_fhstp_ac_at/Documents/__BachelorThesis/blast_othering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{C97D02D2-EB83-470F-A25F-DC8D772D80A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E288AB50-A536-4672-9D6F-8D3CDF18963C}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{C97D02D2-EB83-470F-A25F-DC8D772D80A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98576B08-8074-46DC-B291-430F0CA44773}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{89836E28-A58B-4A46-9E2E-BBA76872F93C}"/>
   </bookViews>
@@ -4174,8 +4174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B25ADD2-D2C7-4963-BAEA-EAA045C1F0D4}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5028,7 +5028,7 @@
         <v>134</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
         <v>58</v>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,26 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fhstp-my.sharepoint.com/personal/cc231056_fhstp_ac_at/Documents/__BachelorThesis/blast_othering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{C97D02D2-EB83-470F-A25F-DC8D772D80A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98576B08-8074-46DC-B291-430F0CA44773}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{C97D02D2-EB83-470F-A25F-DC8D772D80A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D72EAA42-1256-479A-B24D-62358F86DEF3}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{89836E28-A58B-4A46-9E2E-BBA76872F93C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle3" sheetId="4" r:id="rId2"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId3"/>
-    <sheet name="Tabelle6" sheetId="3" r:id="rId4"/>
+    <sheet name="Tabelle4" sheetId="5" r:id="rId3"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId4"/>
+    <sheet name="Tabelle6" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="5" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="209">
   <si>
     <t>Please classify the following statements in one of the categories in the table below. The structure is: Illocutionary act type, Illocutionary act pattern, Example, Shared illocutionary effect.
 Stereotyping, Describes stereotypically, “All [social group] are [characteristic]”, Group/individual is stereotyped Stereotyping, Caricatures individual as a member of a social group, “Those Russian trolls are always at it”, Group/individual is stereotyped Stereotyping, Prescribes stereotypically, “[Social group] should be [characteristic]”, Group/individual is stereotyped Stereotyping, Proscribes stereotypically, “[Social group] shouldn’t be [characteristic]”, Group/individual is stereotyped Demeaning, Stigmatizes using slurs “R*tard!”, Group/individual is stigmatized Demeaning, Stigmatizes using general insult “Those [social group] are such jerks”, Group/individual is stigmatized Demeaning, Stigmatizes on basis of disorder, disease, uncleanliness, or untidiness, “[Social group] are riddled with disease”, Group/individual is stigmatized Demeaning, Stigmatizes on basis of immorality, danger, or deviance, “Being [social group] is a sin”, Group/individual is stigmatized Demeaning, Stigmatizes on basis of lack of social capital (popularity, likability, interest, success, or other positive quality), “[Social group] are not that successful, are they?”, Group/individual is stigmatized Demeaning, Advocates for stigmatizing treatment/avoidance, “Avoid [social group] at all costs!”, Group/individual is stigmatized Demeaning, Threatens or promises stigmatizing treatment/avoidance, “Better keep some distance from [social group] or you’ll end up like them”, Group/individual is stigmatized Demeaning, Others individuals from group as poor exemplar, “They’re not a real [social group member]”, Group/individual is othered Demeaning, Others group from (dominant) group, “[Social group] are just really different from the rest of us”, Group/individual is othered Demeaning, Others subgroup from superset group, “[Social subgroup] aren’t really even [social superset group]”, Group/individual is othered Demeaning, Advocates for treatment as other, “Let’s make sure [social group] can’t get too comfortable here”, Group/individual is othered Demeaning, Threatens or promises othering treatment, “If they’re not careful, [social group] will end up being treated differently from everyone else”, Group/individual is othered Demeaning, Objectifies (reduces to physical attribute or behavior), “[Social group] are all legs!”, Group/individual is simplified Demeaning, Glorifies (reduces to prominent and often flattering character or personality traits), “[Social group] are so brave in the face of so much adversity”, Group/individual is simplified Demeaning, Advocates for treatment along the lines of simplified (objectifying or glorifying) features “Let’s go get us some [social group] ass”, Group/individual is simplified Demeaning, Threatens or promises treatment along the lines of simplified (objectifying or glorifying) features “We’re going to treat you [social group] like your [objectified body parts] deserve”, Group/individual is simplified Demeaning, Equates to baby/child, animal, disease or inanimate object, “[Social group] are such babies”, Group/individual is dehumanized Demeaning, Notes characteristics that match baby/child, animal, disease or inanimate object, “Why are [social group] always whining?”, Group/individual is dehumanized Demeaning, Advocates for treatment like baby/child, animal, disease or inanimate object, “[Social group] need to be disciplined”, Group/individual is dehumanized Demeaning, Threatens or promises treatment like baby/child, animal, disease or inanimate object, “If those [social group] aren’t careful, I’m going to skewer them”, Group/individual is dehumanized
@@ -873,6 +875,9 @@
   </si>
   <si>
     <t>Anzahl von Category</t>
+  </si>
+  <si>
+    <t>Anzahl von None</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1019,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1068,6 +1073,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -2667,10 +2676,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="" refreshedDate="0" createdVersion="8" refreshedVersion="8" recordCount="0" xr:uid="{0E67942E-DCCE-461F-8D2C-B9A53700F71F}">
   <cacheSource type="worksheet">
@@ -2722,6 +2727,30 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Niklas Hofstetter" refreshedDate="45921.927204282409" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="99" xr:uid="{1E5529BC-C38C-4978-ABD3-B2403C0CD861}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B2:B101" sheet="Tabelle2"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="None" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Stigmatizing"/>
+        <s v="None"/>
+        <s v="Dehumanizing"/>
+        <s v="Stereotyping"/>
+        <s v="Simplifying"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="100">
   <r>
@@ -3323,6 +3352,308 @@
     <x v="0"/>
     <s v="No"/>
     <s v="None"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="99">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -3477,6 +3808,62 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04B4A7A7-0A8A-463F-9829-626761AC5077}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Anzahl von None" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E0C6DA46-ACB8-4BE2-9228-61FCB33D4A09}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0">
   <location ref="A3:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
@@ -4171,11 +4558,86 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE744D2-441B-4AD5-BAD9-7FC6BDC99D22}">
+  <dimension ref="A3:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="21.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.73046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="24">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B25ADD2-D2C7-4963-BAEA-EAA045C1F0D4}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B101" sqref="B2:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6038,11 +6500,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CE0172-35A8-41CD-B652-AC039F66C776}">
   <dimension ref="A3:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="59" documentId="8_{C97D02D2-EB83-470F-A25F-DC8D772D80A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D72EAA42-1256-479A-B24D-62358F86DEF3}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{89836E28-A58B-4A46-9E2E-BBA76872F93C}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{89836E28-A58B-4A46-9E2E-BBA76872F93C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId6"/>
     <pivotCache cacheId="1" r:id="rId7"/>
-    <pivotCache cacheId="5" r:id="rId8"/>
+    <pivotCache cacheId="2" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1019,7 +1019,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1068,15 +1068,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -2676,6 +2675,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="" refreshedDate="0" createdVersion="8" refreshedVersion="8" recordCount="0" xr:uid="{0E67942E-DCCE-461F-8D2C-B9A53700F71F}">
   <cacheSource type="worksheet">
@@ -3808,7 +3811,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04B4A7A7-0A8A-463F-9829-626761AC5077}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04B4A7A7-0A8A-463F-9829-626761AC5077}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -4207,8 +4210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95423600-7CD2-49E6-8D23-DE06EFED441E}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4221,11 +4224,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="296.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -4561,7 +4564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE744D2-441B-4AD5-BAD9-7FC6BDC99D22}">
   <dimension ref="A3:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -4580,50 +4583,50 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="24">
+      <c r="A5" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9">
         <v>99</v>
       </c>
     </row>
@@ -4636,8 +4639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B25ADD2-D2C7-4963-BAEA-EAA045C1F0D4}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B101" sqref="B2:B101"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4666,7 +4669,7 @@
       <c r="D1" t="s">
         <v>206</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="23" t="s">
         <v>62</v>
       </c>
       <c r="J1" s="12"/>
@@ -4690,7 +4693,7 @@
       <c r="F2" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="22"/>
+      <c r="I2" s="23"/>
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
@@ -4709,7 +4712,7 @@
       <c r="E3" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="22"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
@@ -4728,7 +4731,7 @@
       <c r="E4" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="22"/>
+      <c r="I4" s="23"/>
       <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fhstp-my.sharepoint.com/personal/cc231056_fhstp_ac_at/Documents/__BachelorThesis/blast_othering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{C97D02D2-EB83-470F-A25F-DC8D772D80A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D72EAA42-1256-479A-B24D-62358F86DEF3}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{C97D02D2-EB83-470F-A25F-DC8D772D80A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A902662-DC8B-49AA-B6D3-B507B9DEFB9F}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{89836E28-A58B-4A46-9E2E-BBA76872F93C}"/>
   </bookViews>
@@ -4639,8 +4639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B25ADD2-D2C7-4963-BAEA-EAA045C1F0D4}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4679,7 +4679,7 @@
         <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
         <v>58</v>
@@ -4720,7 +4720,7 @@
         <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
         <v>202</v>
@@ -5385,7 +5385,7 @@
         <v>128</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
         <v>202</v>
@@ -5436,7 +5436,7 @@
         <v>131</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C43" t="s">
         <v>58</v>
@@ -5681,7 +5681,7 @@
         <v>147</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C56" t="s">
         <v>58</v>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -4639,8 +4639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B25ADD2-D2C7-4963-BAEA-EAA045C1F0D4}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fhstp-my.sharepoint.com/personal/cc231056_fhstp_ac_at/Documents/__BachelorThesis/blast_othering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{C97D02D2-EB83-470F-A25F-DC8D772D80A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A902662-DC8B-49AA-B6D3-B507B9DEFB9F}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{C97D02D2-EB83-470F-A25F-DC8D772D80A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36BB917F-C9A2-4B61-ADB2-05F1DB510CD7}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{89836E28-A58B-4A46-9E2E-BBA76872F93C}"/>
   </bookViews>
@@ -4639,8 +4639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B25ADD2-D2C7-4963-BAEA-EAA045C1F0D4}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5206,7 +5206,7 @@
         <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
         <v>58</v>
@@ -5229,7 +5229,7 @@
         <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>202</v>
       </c>
       <c r="D31" t="s">
         <v>83</v>
@@ -5277,7 +5277,7 @@
         <v>120</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
         <v>58</v>
@@ -5419,7 +5419,7 @@
         <v>130</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
         <v>202</v>
@@ -5786,7 +5786,7 @@
         <v>154</v>
       </c>
       <c r="B62" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C62" t="s">
         <v>58</v>
@@ -6249,7 +6249,7 @@
         <v>185</v>
       </c>
       <c r="B88" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C88" t="s">
         <v>202</v>
@@ -6431,7 +6431,7 @@
         <v>56</v>
       </c>
       <c r="C98" t="s">
-        <v>202</v>
+        <v>58</v>
       </c>
       <c r="D98" t="s">
         <v>83</v>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -4639,8 +4639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B25ADD2-D2C7-4963-BAEA-EAA045C1F0D4}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fhstp-my.sharepoint.com/personal/cc231056_fhstp_ac_at/Documents/__BachelorThesis/blast_othering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="8_{C97D02D2-EB83-470F-A25F-DC8D772D80A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36BB917F-C9A2-4B61-ADB2-05F1DB510CD7}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="8_{C97D02D2-EB83-470F-A25F-DC8D772D80A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DABD7D1B-3859-42C4-A9E9-BB82ABDBE387}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{89836E28-A58B-4A46-9E2E-BBA76872F93C}"/>
   </bookViews>
@@ -4639,8 +4639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B25ADD2-D2C7-4963-BAEA-EAA045C1F0D4}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5030,7 +5030,7 @@
         <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>202</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>83</v>
@@ -5098,7 +5098,7 @@
         <v>107</v>
       </c>
       <c r="C24" t="s">
-        <v>202</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
         <v>76</v>
@@ -5115,7 +5115,7 @@
         <v>107</v>
       </c>
       <c r="C25" t="s">
-        <v>202</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
         <v>76</v>
@@ -5229,7 +5229,7 @@
         <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>202</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
         <v>83</v>
@@ -5243,7 +5243,7 @@
         <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>202</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
         <v>83</v>
@@ -5317,7 +5317,7 @@
         <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>202</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
         <v>83</v>
@@ -5334,7 +5334,7 @@
         <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>202</v>
+        <v>58</v>
       </c>
       <c r="D37" t="s">
         <v>83</v>
@@ -5405,7 +5405,7 @@
         <v>76</v>
       </c>
       <c r="C41" t="s">
-        <v>202</v>
+        <v>58</v>
       </c>
       <c r="D41" t="s">
         <v>107</v>
@@ -5422,7 +5422,7 @@
         <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>202</v>
+        <v>58</v>
       </c>
       <c r="D42" t="s">
         <v>83</v>
@@ -5809,7 +5809,7 @@
         <v>56</v>
       </c>
       <c r="C63" t="s">
-        <v>202</v>
+        <v>58</v>
       </c>
       <c r="D63" t="s">
         <v>156</v>
@@ -5877,7 +5877,7 @@
         <v>107</v>
       </c>
       <c r="C67" t="s">
-        <v>202</v>
+        <v>58</v>
       </c>
       <c r="D67" t="s">
         <v>161</v>
@@ -6002,7 +6002,7 @@
         <v>107</v>
       </c>
       <c r="C74" t="s">
-        <v>202</v>
+        <v>58</v>
       </c>
       <c r="D74" t="s">
         <v>93</v>
@@ -6252,7 +6252,7 @@
         <v>56</v>
       </c>
       <c r="C88" t="s">
-        <v>202</v>
+        <v>58</v>
       </c>
       <c r="D88" t="s">
         <v>83</v>
@@ -6320,7 +6320,7 @@
         <v>76</v>
       </c>
       <c r="C92" t="s">
-        <v>202</v>
+        <v>58</v>
       </c>
       <c r="D92" t="s">
         <v>83</v>
@@ -6374,7 +6374,7 @@
         <v>93</v>
       </c>
       <c r="C95" t="s">
-        <v>202</v>
+        <v>58</v>
       </c>
       <c r="D95" t="s">
         <v>83</v>

--- a/examples.xlsx
+++ b/examples.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="90" documentId="8_{C97D02D2-EB83-470F-A25F-DC8D772D80A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DABD7D1B-3859-42C4-A9E9-BB82ABDBE387}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{89836E28-A58B-4A46-9E2E-BBA76872F93C}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{89836E28-A58B-4A46-9E2E-BBA76872F93C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,25 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId4"/>
     <sheet name="Tabelle6" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId6"/>
     <pivotCache cacheId="1" r:id="rId7"/>
     <pivotCache cacheId="2" r:id="rId8"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -4210,8 +4223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95423600-7CD2-49E6-8D23-DE06EFED441E}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4639,8 +4652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B25ADD2-D2C7-4963-BAEA-EAA045C1F0D4}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
